--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-encounter.xlsx
@@ -418,7 +418,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「出会いの現状。」(Deai no genjou.)</t>
+    <t>「Encounter（診察、受診、入退院など）の現状。」(Deai no genjou.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -544,7 +544,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>出会いの分類。 (Deai no bunrui.)</t>
+    <t>Encounter（診察、受診、入退院など）の分類。 (Deai no bunrui.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -606,19 +606,19 @@
 </t>
   </si>
   <si>
-    <t>特定の種類の出会い (tokutei no shurui no deai)</t>
-  </si>
-  <si>
-    <t>「特定の出会いの種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）」</t>
-  </si>
-  <si>
-    <t>「出会いをさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。」</t>
+    <t>特定の種類のEncounter（診察、受診、入退院など） (tokutei no shurui no deai)</t>
+  </si>
+  <si>
+    <t>「特定のEncounter（診察、受診、入退院など）の種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）」</t>
+  </si>
+  <si>
+    <t>「Encounter（診察、受診、入退院など）をさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。」</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>出会いのタイプ。 (Deai no taipu.)</t>
+    <t>Encounter（診察、受診、入退院など）のタイプ。 (Deai no taipu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -654,10 +654,10 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>「出会いの緊急性を示す」</t>
-  </si>
-  <si>
-    <t>出会いの緊急性を示します。</t>
+    <t>「Encounter（診察、受診、入退院など）の緊急性を示す」</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）の緊急性を示します。</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -737,10 +737,10 @@
 </t>
   </si>
   <si>
-    <t>この出会いを開始したサービスリクエスト</t>
-  </si>
-  <si>
-    <t>この出会いが満たす要請（例：紹介依頼や手続き要請）</t>
+    <t>このEncounter（診察、受診、入退院など）を開始したサービスリクエスト</t>
+  </si>
+  <si>
+    <t>このEncounter（診察、受診、入退院など）が満たす要請（例：紹介依頼や手続き要請）</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -779,10 +779,10 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>「出会いにおける参加者の役割」</t>
-  </si>
-  <si>
-    <t>出会いにおける参加者の役割。</t>
+    <t>「Encounter（診察、受診、入退院など）における参加者の役割」</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）における参加者の役割。</t>
   </si>
   <si>
     <t>参加者タイプは、個人がどのようにエンカウントに参加するかを示します。それには、非開業者の参加者が含まれ、開業者にとってはこのエンカウントの文脈でアクションタイプを説明することが含まれます（例：入院医師、診療医師、翻訳者、相談医師）。これは、雇用、教育、免許などの用語から派生した機能的な役割である開業者の役割とは異なります。</t>
@@ -825,7 +825,7 @@
     <t>「患者以外に関与する人」</t>
   </si>
   <si>
-    <t>「患者以外に出会いに関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
+    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -847,10 +847,10 @@
 </t>
   </si>
   <si>
-    <t>「この出会いを予定した予約」(Kono deai o yotei shita yoyaku)</t>
-  </si>
-  <si>
-    <t>「この出会いを予定した約束。」</t>
+    <t>「このEncounter（診察、受診、入退院など）を予定した予約」(Kono deai o yotei shita yoyaku)</t>
+  </si>
+  <si>
+    <t>「このEncounter（診察、受診、入退院など）を予定した約束。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -862,10 +862,10 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>出会いの始まりと終わりの時間</t>
-  </si>
-  <si>
-    <t>出会いの開始時刻と終了時刻。</t>
+    <t>Encounter（診察、受診、入退院など）の始まりと終わりの時間</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）の開始時刻と終了時刻。</t>
   </si>
   <si>
     <t>「もし、まだ知られていなければ、期間の終わりは省略できます。」</t>
@@ -890,7 +890,7 @@
 </t>
   </si>
   <si>
-    <t>出会いが続いた時間（不在時間を差し引いた時間）</t>
+    <t>Encounter（診察、受診、入退院など）が続いた時間（不在時間を差し引いた時間）</t>
   </si>
   <si>
     <t>接触が続いた時間の量です。休暇中の時間は除かれます。</t>
@@ -915,13 +915,13 @@
     <t>「エンカウントが生じる理由がコード化されている」</t>
   </si>
   <si>
-    <t>出会いが起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
+    <t>Encounter（診察、受診、入退院など）が起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
   </si>
   <si>
     <t>主要な診断を知る必要があるシステムには、標準拡張子primaryDiagnosis（フラグではなく、シーケンス値である1 = 主要な診断）でマークされます。</t>
   </si>
   <si>
-    <t>出会いが起こる理由。</t>
+    <t>Encounter（診察、受診、入退院など）が起こる理由。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -946,7 +946,7 @@
 </t>
   </si>
   <si>
-    <t>出会いが生じた理由（参照）(Deai ga shoujita riyuu (sanshou))</t>
+    <t>Encounter（診察、受診、入退院など）が生じた理由（参照）(Deai ga shoujita riyuu (sanshou))</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -984,7 +984,7 @@
     <t>「エンカウンターに関連する診断または処置」</t>
   </si>
   <si>
-    <t>「エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）または手順です。」</t>
+    <t>「エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）またはプロシジャー（処置等）です。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1002,7 +1002,7 @@
     <t>この診断に対する役割（入院、請求、退院など）</t>
   </si>
   <si>
-    <t>この診断が出会いの中で果たす役割（入院、請求、退院など）</t>
+    <t>この診断がEncounter（診察、受診、入退院など）の中で果たす役割（入院、請求、退院など）</t>
   </si>
   <si>
     <t>この状態が表す診断のタイプ。 (Kono jōtai ga arawasu shindan no taipu.)</t>
@@ -1037,10 +1037,10 @@
     <t>このエンカウンターの請求に使用できるアカウントのセット</t>
   </si>
   <si>
-    <t>このインカウンターの請求に使用できるアカウントのセット。</t>
-  </si>
-  <si>
-    <t>請求システムは内部のビジネスルールに基づいて、出会いに関連する請求可能なアイテムを複数の参照されたアカウントに割り当てることができます。</t>
+    <t>このエンカウンターの請求に使用できるアカウントのセット。</t>
+  </si>
+  <si>
+    <t>請求システムは内部のビジネスルールに基づいて、Encounter（診察、受診、入退院など）に関連する請求可能なアイテムを複数の参照されたアカウントに割り当てることができます。</t>
   </si>
   <si>
     <t>.pertains.A_Account</t>
@@ -1074,10 +1074,10 @@
     <t>Encounter.hospitalization.preAdmissionIdentifier</t>
   </si>
   <si>
-    <t>事前入学識別子 (Jizen nyugaku shikibetsushi)</t>
-  </si>
-  <si>
-    <t>「入学前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
+    <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
+  </si>
+  <si>
+    <t>「入院前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1274,10 +1274,10 @@
 </t>
   </si>
   <si>
-    <t>出会いの場所 (Deai no basho)</t>
-  </si>
-  <si>
-    <t>出会いが起こる場所。</t>
+    <t>Encounter（診察、受診、入退院など）の場所 (Deai no basho)</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）が起こる場所。</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -1345,7 +1345,7 @@
 </t>
   </si>
   <si>
-    <t>この出会いに責任を持つ組織（施設）</t>
+    <t>このEncounter（診察、受診、入退院など）に責任を持つ組織（施設）</t>
   </si>
   <si>
     <t>このエンカウンターのサービスを主に担当する組織。これは患者の記録にある組織と同じかもしれませんが、外部組織からサービスを提供するアクターがいる場合など、別の組織である可能性もあります(別途請求される可能性があります)。大腸内視鏡検査の簡略化されたエンカウンターのバンドルを参照してください。</t>
@@ -1364,10 +1364,10 @@
 </t>
   </si>
   <si>
-    <t>「もう一度の出会い。この出会いは一部である。」</t>
-  </si>
-  <si>
-    <t>この出会いが一部である、別の出会い（手続き的にも時間的にも）。</t>
+    <t>「もう一度のEncounter（診察、受診、入退院など）。このEncounter（診察、受診、入退院など）は一部である。」</t>
+  </si>
+  <si>
+    <t>このEncounter（診察、受診、入退院など）が一部である、別のEncounter（診察、受診、入退院など）（手続き的にも時間的にも）。</t>
   </si>
   <si>
     <t>「これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。」</t>
